--- a/Hardware/GuitarPedal125b/pcb/BOM_JLCSMT_DaisySeedGuitarPedal125b.xlsx
+++ b/Hardware/GuitarPedal125b/pcb/BOM_JLCSMT_DaisySeedGuitarPedal125b.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kshep/Dev/DaisySeedProjects/GuitarPedal125b/pcb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kshep/Dev/DaisySeedProjects/Hardware/GuitarPedal125b/pcb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9ECD584-DFAB-8E41-9007-B3A435A27898}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D2CB24-B078-2745-9592-AE8AF61A12F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68540" yWindow="3100" windowWidth="28800" windowHeight="21660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="760" windowWidth="28800" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -345,7 +345,7 @@
     <t>CPC1018N</t>
   </si>
   <si>
-    <t>C1558973</t>
+    <t>C133069</t>
   </si>
 </sst>
 </file>
@@ -871,7 +871,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>

--- a/Hardware/GuitarPedal125b/pcb/BOM_JLCSMT_DaisySeedGuitarPedal125b.xlsx
+++ b/Hardware/GuitarPedal125b/pcb/BOM_JLCSMT_DaisySeedGuitarPedal125b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kshep/Dev/DaisySeedProjects/Hardware/GuitarPedal125b/pcb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D2CB24-B078-2745-9592-AE8AF61A12F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA092D4-B1FD-3B41-9900-3B32511ED983}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="760" windowWidth="28800" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="63260" yWindow="1420" windowWidth="28800" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,27 +78,12 @@
     <t>C15850</t>
   </si>
   <si>
-    <t>C1, C4, C5, C9-12, C15, C16</t>
-  </si>
-  <si>
     <t>100nF</t>
   </si>
   <si>
     <t>C49678</t>
   </si>
   <si>
-    <t>C2, C3, C7, C8, C13, C14, C17</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C45783</t>
-  </si>
-  <si>
     <t>10nF</t>
   </si>
   <si>
@@ -117,15 +102,6 @@
     <t>D3, D4</t>
   </si>
   <si>
-    <t>2.2uH</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>C1043</t>
-  </si>
-  <si>
     <t>C2150</t>
   </si>
   <si>
@@ -138,18 +114,12 @@
     <t>C26112</t>
   </si>
   <si>
-    <t>R1, R2, R4, R5, R7-10, R13, R14</t>
-  </si>
-  <si>
     <t>C149504</t>
   </si>
   <si>
     <t>R3, R6</t>
   </si>
   <si>
-    <t>R11, R12</t>
-  </si>
-  <si>
     <t>C17408</t>
   </si>
   <si>
@@ -159,9 +129,6 @@
     <t>C17634</t>
   </si>
   <si>
-    <t>R16</t>
-  </si>
-  <si>
     <t>C17415</t>
   </si>
   <si>
@@ -264,9 +231,6 @@
     <t>10K</t>
   </si>
   <si>
-    <t>U5</t>
-  </si>
-  <si>
     <t>G6K-2G-Y DC5</t>
   </si>
   <si>
@@ -285,24 +249,15 @@
     <t>PJ-320A</t>
   </si>
   <si>
-    <t>J4, J5</t>
-  </si>
-  <si>
     <t>C2884926</t>
   </si>
   <si>
-    <t>J2, J3</t>
-  </si>
-  <si>
     <t>DC-005-2.5A-2.0</t>
   </si>
   <si>
     <t>J1</t>
   </si>
   <si>
-    <t>R15</t>
-  </si>
-  <si>
     <t>C78589</t>
   </si>
   <si>
@@ -318,27 +273,12 @@
     <t>C136744</t>
   </si>
   <si>
-    <t>PDS1-S5-S5-M</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
-    <t>C5377809</t>
-  </si>
-  <si>
     <t>SOP-4-2.54mm</t>
   </si>
   <si>
-    <t>U7, U8</t>
-  </si>
-  <si>
-    <t>R19, R20, R21, R24, R25</t>
-  </si>
-  <si>
-    <t>R22, R23, R26, R27</t>
-  </si>
-  <si>
     <t>C18, C19</t>
   </si>
   <si>
@@ -346,6 +286,66 @@
   </si>
   <si>
     <t>C133069</t>
+  </si>
+  <si>
+    <t>C2, C3, C5, C6, C13, C14, C17</t>
+  </si>
+  <si>
+    <t>C1, C4, C7, C8, C11, C12, C15, C16</t>
+  </si>
+  <si>
+    <t>C9, C10</t>
+  </si>
+  <si>
+    <t>J2, J4</t>
+  </si>
+  <si>
+    <t>J3, J5</t>
+  </si>
+  <si>
+    <t>R1, R2, R4, R5, R9-12, R15, R16</t>
+  </si>
+  <si>
+    <t>R13, R14</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R21-25</t>
+  </si>
+  <si>
+    <t>R26-29</t>
+  </si>
+  <si>
+    <t>R7, R8</t>
+  </si>
+  <si>
+    <t>U5, U6</t>
+  </si>
+  <si>
+    <t>2.2nF</t>
+  </si>
+  <si>
+    <t>C28260</t>
+  </si>
+  <si>
+    <t>C26010</t>
+  </si>
+  <si>
+    <t>3.3K</t>
+  </si>
+  <si>
+    <t>1x20 Through Hole Header</t>
+  </si>
+  <si>
+    <t>J6, J7</t>
+  </si>
+  <si>
+    <t>C50984</t>
   </si>
 </sst>
 </file>
@@ -404,6 +404,12 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -413,13 +419,6 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -470,7 +469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -498,12 +497,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -513,6 +506,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -520,9 +516,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -871,13 +864,13 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="26" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.83203125" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
     <col min="3" max="3" width="36.1640625" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
   </cols>
@@ -900,8 +893,8 @@
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
+      <c r="B2" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="C2" s="5">
         <v>805</v>
@@ -912,372 +905,372 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="5">
+        <v>805</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5">
-        <v>805</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
+      <c r="A4" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="C4" s="5">
         <v>805</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
+      <c r="D4" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C5" s="5">
         <v>805</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>76</v>
+        <v>63</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="5">
-        <v>805</v>
+      <c r="A12" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>59</v>
+      <c r="A14" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>27</v>
+      <c r="A15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C15" s="5">
         <v>805</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C16" s="5">
         <v>805</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>30</v>
+        <v>51</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="C17" s="5">
         <v>805</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="C18" s="5">
         <v>805</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="C19" s="5">
         <v>805</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>36</v>
+        <v>54</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C20" s="5">
         <v>805</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="C21" s="5">
         <v>805</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C22" s="5">
         <v>805</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C23" s="5">
         <v>805</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>40</v>
+      <c r="D23" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="5">
+        <v>805</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
-      <c r="A25" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="16" t="s">
-        <v>89</v>
+      <c r="C25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>91</v>
+        <v>75</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
